--- a/BackTest/2019-11-24 BackTest BSV.xlsx
+++ b/BackTest/2019-11-24 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3091,11 +3091,17 @@
         <v>-421.7621896900001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>111900</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3134,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3167,17 @@
         <v>-435.08518969</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>111900</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3206,17 @@
         <v>-435.08518969</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>111800</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3245,17 @@
         <v>-435.08518969</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>111800</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3284,17 @@
         <v>-365.08518969</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>111800</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3323,17 @@
         <v>-365.08518969</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>112200</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3362,17 @@
         <v>-340.7585896900001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>112200</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3401,17 @@
         <v>-339.4748896900001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>112400</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3440,17 @@
         <v>-339.37488969</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>112800</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3479,17 @@
         <v>-339.37488969</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>112900</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3522,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3559,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3596,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3633,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3670,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3707,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3744,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +3781,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +3818,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +3855,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +3892,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +3929,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +3966,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4003,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4040,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4077,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4114,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4151,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4188,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4225,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4262,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4299,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4336,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4373,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4410,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4443,17 @@
         <v>-399.7114253299999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>111900</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4482,17 @@
         <v>-393.3752247899999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>111900</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4521,17 @@
         <v>-343.5161247899999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>112000</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4560,17 @@
         <v>-343.5161247899999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>112400</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4599,17 @@
         <v>-336.3603247899999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>112400</v>
+      </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4638,17 @@
         <v>-336.1603247899999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>112700</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4677,17 @@
         <v>-334.98992479</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>113000</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4716,17 @@
         <v>-335.34992479</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>113200</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4759,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4792,17 @@
         <v>-335.53882479</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>112600</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4831,17 @@
         <v>-333.15692479</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>112400</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4870,17 @@
         <v>-333.15692479</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>112600</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4909,17 @@
         <v>-332.79692479</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>112600</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4948,17 @@
         <v>-332.79692479</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>112900</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4987,17 @@
         <v>-332.79692479</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>112900</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5026,17 @@
         <v>-337.99262479</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>112900</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5065,17 @@
         <v>-339.73252479</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>112700</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5104,17 @@
         <v>-339.73252479</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>112600</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5143,17 @@
         <v>-339.7604247899999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>112600</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5186,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5223,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5260,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5297,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5334,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5371,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5408,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5445,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5482,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5515,17 @@
         <v>-420.2732247899999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>111800</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5554,17 @@
         <v>-420.2732247899999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>111800</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5593,17 @@
         <v>-419.9532247899999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>111800</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5632,17 @@
         <v>-435.7498247899999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>112000</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5671,17 @@
         <v>-435.7498247899999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>111900</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5710,17 @@
         <v>-435.7498247899999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>111900</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5749,17 @@
         <v>-431.0698247899999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>111900</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5788,17 @@
         <v>-430.6998247899999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>112000</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5827,17 @@
         <v>-430.7637247899999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>112100</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5866,17 @@
         <v>-430.7637247899999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>111900</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5905,17 @@
         <v>-430.7637247899999</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>111900</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5944,17 @@
         <v>-434.2549247899999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>111900</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5983,17 @@
         <v>-514.0477247899998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>111800</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +6022,17 @@
         <v>-767.2080247899999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>111100</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +6061,17 @@
         <v>-822.2289247899998</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>110900</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,7 +6100,7 @@
         <v>-810.8214247899998</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>110400</v>
@@ -5706,7 +6108,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -5737,7 +6139,7 @@
         <v>-808.0690247899998</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>110700</v>
@@ -5776,7 +6178,7 @@
         <v>-877.6340247899998</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>111300</v>
@@ -5815,7 +6217,7 @@
         <v>-877.6340247899998</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>111000</v>
@@ -5854,7 +6256,7 @@
         <v>-877.3140247899997</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>111000</v>
@@ -5893,7 +6295,7 @@
         <v>-876.3140247899997</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>111600</v>
@@ -5932,7 +6334,7 @@
         <v>-879.3965247899997</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>111700</v>
@@ -5971,7 +6373,7 @@
         <v>-885.6704247899997</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>111500</v>
@@ -6010,7 +6412,7 @@
         <v>-901.6942247899998</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>111300</v>
@@ -6049,7 +6451,7 @@
         <v>-901.6942247899998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>111000</v>
@@ -6088,7 +6490,7 @@
         <v>-901.6942247899998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>111000</v>
@@ -6127,7 +6529,7 @@
         <v>-901.2642247899998</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>111000</v>
@@ -6166,7 +6568,7 @@
         <v>-902.1708247899999</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>111300</v>
@@ -6205,7 +6607,7 @@
         <v>-901.6008247899998</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>111000</v>
@@ -6244,7 +6646,7 @@
         <v>-929.3456247899999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>111300</v>
@@ -6283,7 +6685,7 @@
         <v>-934.3491247899999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>111000</v>
@@ -6322,7 +6724,7 @@
         <v>-913.3830247899999</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>110900</v>
@@ -6361,7 +6763,7 @@
         <v>-912.97302479</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>111100</v>
@@ -6400,7 +6802,7 @@
         <v>-914.5846247899999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>111500</v>
@@ -6439,7 +6841,7 @@
         <v>-911.8591247899999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>111200</v>
@@ -6478,7 +6880,7 @@
         <v>-913.4257247899999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>111500</v>
@@ -6517,7 +6919,7 @@
         <v>-913.7851247899999</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>111200</v>
@@ -6556,7 +6958,7 @@
         <v>-913.4351247899999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>111000</v>
@@ -6595,7 +6997,7 @@
         <v>-906.2781247899999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>111100</v>
@@ -6634,7 +7036,7 @@
         <v>-867.7920247899999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>111500</v>
@@ -6673,7 +7075,7 @@
         <v>-571.1711247899999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>111600</v>
@@ -6712,7 +7114,7 @@
         <v>-572.8731247899999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>112300</v>
@@ -6751,7 +7153,7 @@
         <v>-696.7389247899999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>112200</v>
@@ -6790,7 +7192,7 @@
         <v>-690.9790247899999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>112100</v>
@@ -6829,7 +7231,7 @@
         <v>-690.9790247899999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>112400</v>
@@ -6868,7 +7270,7 @@
         <v>-359.3137247899999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>112400</v>
@@ -6907,7 +7309,7 @@
         <v>-377.6826247899999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>113900</v>
@@ -6946,11 +7348,9 @@
         <v>-449.4935247899999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -6985,7 +7385,7 @@
         <v>-449.4935247899999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>112400</v>
@@ -7024,7 +7424,7 @@
         <v>-449.4935247899999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>112400</v>
@@ -7063,7 +7463,7 @@
         <v>-402.3987247899999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>112400</v>
@@ -7102,11 +7502,9 @@
         <v>-434.6823247899999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -7141,7 +7539,7 @@
         <v>-408.4866562299999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>111900</v>
@@ -7180,11 +7578,9 @@
         <v>-406.5573562299999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>112100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7219,11 +7615,9 @@
         <v>-404.3364562299999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>112500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7258,11 +7652,9 @@
         <v>-404.3364562299999</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>112600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7297,11 +7689,9 @@
         <v>-404.2693562299999</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>112600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7336,11 +7726,9 @@
         <v>-404.2693562299999</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>112800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
@@ -7375,11 +7763,9 @@
         <v>-404.2743562299999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>112800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7414,11 +7800,9 @@
         <v>-404.2743562299999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>112600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7453,11 +7837,9 @@
         <v>-426.2398562299999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>112600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7492,11 +7874,9 @@
         <v>-429.4278562299999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="n">
-        <v>112200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7531,11 +7911,9 @@
         <v>-429.4228562299999</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="n">
-        <v>112000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -7570,11 +7948,9 @@
         <v>-429.4428562299999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>112300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7831,11 +8207,9 @@
         <v>-430.2762562299999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>113300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -12976,16 +13350,18 @@
         <v>-460.6537732199999</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L355" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
       <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
@@ -13011,11 +13387,15 @@
         <v>-207.80127322</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13044,11 +13424,15 @@
         <v>-723.7357732199999</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13077,11 +13461,15 @@
         <v>-310.3954360399999</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13110,11 +13498,15 @@
         <v>-533.74253604</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13147,7 +13539,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13180,7 +13576,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13213,7 +13613,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13246,7 +13650,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13279,7 +13687,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13312,7 +13724,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13345,7 +13761,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13378,7 +13798,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13411,7 +13835,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13444,7 +13872,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13477,7 +13909,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13510,7 +13946,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13543,7 +13983,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13576,7 +14020,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13609,7 +14057,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13642,7 +14094,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13675,7 +14131,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13708,7 +14168,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13741,7 +14205,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13774,7 +14242,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13807,7 +14279,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13840,7 +14316,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13873,7 +14353,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13906,7 +14390,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13939,7 +14427,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13972,7 +14464,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14005,7 +14501,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14038,7 +14538,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14071,7 +14575,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14104,7 +14612,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14137,7 +14649,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14170,7 +14686,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14203,7 +14723,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14236,7 +14760,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14269,7 +14797,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14302,7 +14834,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14335,7 +14871,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14368,7 +14908,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14401,7 +14945,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14434,7 +14982,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14467,7 +15019,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14500,7 +15056,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14533,7 +15093,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14566,7 +15130,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14599,7 +15167,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14632,7 +15204,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14665,7 +15241,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14698,7 +15278,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14731,7 +15315,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14764,7 +15352,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14797,7 +15389,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14830,7 +15426,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14863,7 +15463,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14896,7 +15500,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14929,7 +15537,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14962,7 +15574,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14995,7 +15611,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15028,7 +15648,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15061,7 +15685,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15094,7 +15722,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15127,7 +15759,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15160,7 +15796,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15193,7 +15833,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15226,7 +15870,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15259,7 +15907,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15292,7 +15944,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15325,7 +15981,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15358,7 +16018,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15391,7 +16055,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15424,7 +16092,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15457,7 +16129,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15490,7 +16166,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15523,7 +16203,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15556,7 +16240,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15589,7 +16277,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15622,7 +16314,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15655,7 +16351,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15688,7 +16388,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15721,7 +16425,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15754,7 +16462,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15787,7 +16499,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15820,7 +16536,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15853,7 +16573,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15886,7 +16610,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15919,7 +16647,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15952,7 +16684,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15985,7 +16721,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16018,7 +16758,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16051,7 +16795,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16084,7 +16832,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16117,7 +16869,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16150,7 +16906,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16183,7 +16943,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16212,14 +16976,16 @@
         <v>315.2251103299994</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="inlineStr"/>
     </row>
     <row r="454">
@@ -16245,7 +17011,7 @@
         <v>228.1285103299994</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16278,7 +17044,7 @@
         <v>323.8712103299994</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16311,7 +17077,7 @@
         <v>323.8712103299994</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16344,7 +17110,7 @@
         <v>314.8186103299994</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16377,7 +17143,7 @@
         <v>265.3704103299994</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16410,7 +17176,7 @@
         <v>271.6545103299994</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16443,7 +17209,7 @@
         <v>263.9406103299994</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16476,7 +17242,7 @@
         <v>277.5219103299994</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16509,7 +17275,7 @@
         <v>263.8423103299994</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16542,7 +17308,7 @@
         <v>248.5362103299994</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16575,7 +17341,7 @@
         <v>267.4183103299994</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16608,7 +17374,7 @@
         <v>259.4507103299994</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16641,7 +17407,7 @@
         <v>384.7101103299993</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16674,7 +17440,7 @@
         <v>330.9729103299993</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16707,7 +17473,7 @@
         <v>326.0519103299993</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16740,7 +17506,7 @@
         <v>326.0519103299993</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16773,7 +17539,7 @@
         <v>305.9866103299993</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16806,7 +17572,7 @@
         <v>315.9898103299993</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16839,7 +17605,7 @@
         <v>316.3618103299993</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16872,7 +17638,7 @@
         <v>350.6623103299993</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16905,7 +17671,7 @@
         <v>306.8690103299994</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16938,7 +17704,7 @@
         <v>306.8690103299994</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16971,7 +17737,7 @@
         <v>276.8743103299993</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17004,7 +17770,7 @@
         <v>125.7051103299993</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17037,7 +17803,7 @@
         <v>222.3674658699993</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17070,7 +17836,7 @@
         <v>213.4884658699993</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17103,7 +17869,7 @@
         <v>183.6805658699994</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17136,7 +17902,7 @@
         <v>171.5940658699994</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17169,7 +17935,7 @@
         <v>222.9181658699994</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17202,7 +17968,7 @@
         <v>335.7445658699994</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17235,7 +18001,7 @@
         <v>335.7445658699994</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17268,7 +18034,7 @@
         <v>343.1276658699994</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17301,7 +18067,7 @@
         <v>321.4313658699994</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17334,7 +18100,7 @@
         <v>356.7418658699994</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17367,7 +18133,7 @@
         <v>437.2348658699994</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17400,7 +18166,7 @@
         <v>517.6282658699994</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17433,7 +18199,7 @@
         <v>509.1569658699994</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17466,7 +18232,7 @@
         <v>533.7005168299994</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17499,7 +18265,7 @@
         <v>540.3043168299994</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17532,7 +18298,7 @@
         <v>466.1134168299994</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17565,7 +18331,7 @@
         <v>466.1134168299994</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17598,7 +18364,7 @@
         <v>316.3039168299994</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17631,7 +18397,7 @@
         <v>308.3869168299994</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17664,7 +18430,7 @@
         <v>193.8423168299994</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17697,7 +18463,7 @@
         <v>246.4250168299994</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17730,7 +18496,7 @@
         <v>301.5627225899994</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17763,7 +18529,7 @@
         <v>301.5627225899994</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17796,7 +18562,7 @@
         <v>302.7627225899994</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17829,7 +18595,7 @@
         <v>302.7783225899994</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17862,7 +18628,7 @@
         <v>302.7783225899994</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17895,7 +18661,7 @@
         <v>271.8880409299994</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17928,7 +18694,7 @@
         <v>271.9636409299994</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17961,7 +18727,7 @@
         <v>381.3464409299994</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17994,7 +18760,7 @@
         <v>458.1841068999994</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18027,7 +18793,7 @@
         <v>434.9855068999994</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18060,7 +18826,7 @@
         <v>422.8504068999994</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18093,7 +18859,7 @@
         <v>432.8496821099994</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18126,7 +18892,7 @@
         <v>429.6184821099994</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18159,7 +18925,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18192,7 +18958,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18225,7 +18991,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18258,7 +19024,7 @@
         <v>422.6271821099994</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18291,7 +19057,7 @@
         <v>422.6271821099994</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18324,7 +19090,7 @@
         <v>411.3255821099993</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18357,7 +19123,7 @@
         <v>401.3285821099993</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18390,7 +19156,7 @@
         <v>411.6841821099993</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18423,7 +19189,7 @@
         <v>431.8271821099993</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18456,7 +19222,7 @@
         <v>485.6465821099993</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18489,7 +19255,7 @@
         <v>485.4814821099993</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18522,7 +19288,7 @@
         <v>498.0823821099993</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18555,7 +19321,7 @@
         <v>497.8724821099993</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18588,7 +19354,7 @@
         <v>496.7623821099993</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18621,7 +19387,7 @@
         <v>496.7623821099993</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18654,7 +19420,7 @@
         <v>496.7623821099993</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18687,7 +19453,7 @@
         <v>496.8623821099993</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18720,7 +19486,7 @@
         <v>497.8623821099993</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18753,7 +19519,7 @@
         <v>511.3588821099993</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18786,7 +19552,7 @@
         <v>509.8002821099993</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18819,7 +19585,7 @@
         <v>532.8750821099993</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18852,7 +19618,7 @@
         <v>526.7503821099994</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18885,7 +19651,7 @@
         <v>556.5376821099993</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18918,7 +19684,7 @@
         <v>558.3305821099993</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18951,7 +19717,7 @@
         <v>553.3451821099993</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18984,7 +19750,7 @@
         <v>553.3451821099993</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19017,7 +19783,7 @@
         <v>556.5623821099994</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19050,7 +19816,7 @@
         <v>557.5622821099994</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19083,7 +19849,7 @@
         <v>559.2956821099993</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19116,7 +19882,7 @@
         <v>559.6156821099994</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19149,7 +19915,7 @@
         <v>525.5765821099994</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19182,7 +19948,7 @@
         <v>529.0451821099995</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19215,7 +19981,7 @@
         <v>523.8794821099995</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19248,7 +20014,7 @@
         <v>523.8794821099995</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19281,7 +20047,7 @@
         <v>523.8375821099994</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19314,7 +20080,7 @@
         <v>525.7487821099994</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19347,7 +20113,7 @@
         <v>526.4187821099994</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19380,7 +20146,7 @@
         <v>497.9477821099994</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19413,7 +20179,7 @@
         <v>518.0091821099994</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19446,7 +20212,7 @@
         <v>522.5741821099995</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19479,7 +20245,7 @@
         <v>518.6201821099995</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19512,7 +20278,7 @@
         <v>518.2624821099995</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19545,7 +20311,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19578,7 +20344,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19611,7 +20377,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19644,7 +20410,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19677,7 +20443,7 @@
         <v>519.4285821099995</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19710,7 +20476,7 @@
         <v>533.1686821099995</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19743,7 +20509,7 @@
         <v>526.8613821099995</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19776,7 +20542,7 @@
         <v>527.1913821099995</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19809,7 +20575,7 @@
         <v>522.1968821099995</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19842,7 +20608,7 @@
         <v>522.1968821099995</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19875,7 +20641,7 @@
         <v>522.1968821099995</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19908,7 +20674,7 @@
         <v>473.5731821099995</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20007,7 +20773,7 @@
         <v>703.0717821099995</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20040,7 +20806,7 @@
         <v>702.6266821099995</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20106,7 +20872,7 @@
         <v>705.6037821099994</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20139,7 +20905,7 @@
         <v>647.6954821099994</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20205,7 +20971,7 @@
         <v>823.7013352399994</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20238,7 +21004,7 @@
         <v>827.2371352399994</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20271,7 +21037,7 @@
         <v>827.2371352399994</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20304,7 +21070,7 @@
         <v>808.0837352399993</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22119,7 +22885,7 @@
         <v>666.3976352399991</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22152,7 +22918,7 @@
         <v>666.3976352399991</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22185,7 +22951,7 @@
         <v>666.447635239999</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22251,7 +23017,7 @@
         <v>666.8676352399991</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22284,7 +23050,7 @@
         <v>666.8676352399991</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22317,7 +23083,7 @@
         <v>668.3338352399991</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22350,7 +23116,7 @@
         <v>687.633835239999</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22383,7 +23149,7 @@
         <v>702.1962352399991</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22416,7 +23182,7 @@
         <v>702.1962352399991</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22449,7 +23215,7 @@
         <v>734.1956352399991</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22482,7 +23248,7 @@
         <v>734.1956352399991</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22515,7 +23281,7 @@
         <v>805.962516599999</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22548,7 +23314,7 @@
         <v>794.6190165999991</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22581,7 +23347,7 @@
         <v>794.6336165999991</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22614,7 +23380,7 @@
         <v>793.787316599999</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22647,7 +23413,7 @@
         <v>798.787316599999</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22680,7 +23446,7 @@
         <v>798.450516599999</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22713,7 +23479,7 @@
         <v>801.289116599999</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22746,7 +23512,7 @@
         <v>797.752516599999</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22779,7 +23545,7 @@
         <v>797.752516599999</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22812,7 +23578,7 @@
         <v>743.752116599999</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22845,7 +23611,7 @@
         <v>669.503016599999</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22878,7 +23644,7 @@
         <v>709.956416599999</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22911,7 +23677,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22944,7 +23710,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22977,7 +23743,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23010,7 +23776,7 @@
         <v>681.614716599999</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23043,7 +23809,7 @@
         <v>681.884716599999</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23076,7 +23842,7 @@
         <v>680.930616599999</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23109,7 +23875,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23142,7 +23908,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23175,7 +23941,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23208,7 +23974,7 @@
         <v>713.815916599999</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23241,7 +24007,7 @@
         <v>713.815916599999</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23274,7 +24040,7 @@
         <v>714.495916599999</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23307,7 +24073,7 @@
         <v>714.195916599999</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23340,7 +24106,7 @@
         <v>714.595916599999</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23373,7 +24139,7 @@
         <v>692.257416599999</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23406,7 +24172,7 @@
         <v>692.257416599999</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23439,7 +24205,7 @@
         <v>699.069416599999</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23472,7 +24238,7 @@
         <v>690.919116599999</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23505,7 +24271,7 @@
         <v>691.3691165999991</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23538,7 +24304,7 @@
         <v>641.5655165999991</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23571,7 +24337,7 @@
         <v>641.8555165999991</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23604,7 +24370,7 @@
         <v>641.8426165999991</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23637,7 +24403,7 @@
         <v>641.8726165999991</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23670,7 +24436,7 @@
         <v>641.8726165999991</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23703,7 +24469,7 @@
         <v>641.2367347099992</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23736,7 +24502,7 @@
         <v>641.0536347099992</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23769,7 +24535,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23802,7 +24568,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23835,7 +24601,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23868,7 +24634,7 @@
         <v>566.5838347099992</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23901,7 +24667,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23934,7 +24700,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23967,7 +24733,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24000,7 +24766,7 @@
         <v>582.7967347099992</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24033,7 +24799,7 @@
         <v>605.7258347099992</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24066,7 +24832,7 @@
         <v>594.2907347099991</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24099,7 +24865,7 @@
         <v>570.2627347099991</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24132,7 +24898,7 @@
         <v>570.6727347099991</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24165,7 +24931,7 @@
         <v>570.6727347099991</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24198,7 +24964,7 @@
         <v>549.7436347099991</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24231,7 +24997,7 @@
         <v>572.4054347099991</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24264,7 +25030,7 @@
         <v>572.4054347099991</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24297,7 +25063,7 @@
         <v>498.0456347099991</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24330,7 +25096,7 @@
         <v>845.9874347099991</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24363,7 +25129,7 @@
         <v>845.705034709999</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24396,7 +25162,7 @@
         <v>867.2466347099991</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24429,7 +25195,7 @@
         <v>905.027942429999</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24462,7 +25228,7 @@
         <v>869.124542429999</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24495,7 +25261,7 @@
         <v>846.231042429999</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24528,7 +25294,7 @@
         <v>789.018642429999</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24561,7 +25327,7 @@
         <v>787.5224424299989</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24594,7 +25360,7 @@
         <v>747.0778424299989</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24627,7 +25393,7 @@
         <v>651.4636424299989</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24660,7 +25426,7 @@
         <v>651.7436424299989</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24693,7 +25459,7 @@
         <v>651.4758424299989</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24726,7 +25492,7 @@
         <v>671.9586424299989</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24759,7 +25525,7 @@
         <v>621.1082424299989</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24792,7 +25558,7 @@
         <v>631.3492424299989</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -24825,7 +25591,7 @@
         <v>552.4267424299989</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24858,7 +25624,7 @@
         <v>552.4267424299989</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24891,7 +25657,7 @@
         <v>362.7567424299989</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24924,7 +25690,7 @@
         <v>308.4989424299989</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24935,6 +25701,6 @@
       <c r="M717" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest BSV.xlsx
+++ b/BackTest/2019-11-24 BackTest BSV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3091,17 +3091,11 @@
         <v>-421.7621896900001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3134,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3167,17 +3157,11 @@
         <v>-435.08518969</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3206,17 +3190,11 @@
         <v>-435.08518969</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>111800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3245,17 +3223,11 @@
         <v>-435.08518969</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>111800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3284,17 +3256,11 @@
         <v>-365.08518969</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>111800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3323,17 +3289,11 @@
         <v>-365.08518969</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>112200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3362,17 +3322,11 @@
         <v>-340.7585896900001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>112200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3401,17 +3355,11 @@
         <v>-339.4748896900001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>112400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3440,17 +3388,11 @@
         <v>-339.37488969</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>112800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3479,17 +3421,11 @@
         <v>-339.37488969</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>112900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3522,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3559,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3596,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3633,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3670,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3707,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3744,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3781,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3818,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3855,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3929,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3966,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4003,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4040,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4077,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4151,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4188,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4225,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4262,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4299,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4336,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4373,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4410,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4443,17 +4279,11 @@
         <v>-399.7114253299999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4482,17 +4312,11 @@
         <v>-393.3752247899999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4521,17 +4345,11 @@
         <v>-343.5161247899999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>112000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4560,17 +4378,11 @@
         <v>-343.5161247899999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>112400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4599,17 +4411,11 @@
         <v>-336.3603247899999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>112400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4638,17 +4444,11 @@
         <v>-336.1603247899999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>112700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4677,17 +4477,11 @@
         <v>-334.98992479</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>113000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4716,17 +4510,11 @@
         <v>-335.34992479</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>113200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4759,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4792,17 +4576,11 @@
         <v>-335.53882479</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>112600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4831,17 +4609,11 @@
         <v>-333.15692479</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>112400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4870,17 +4642,11 @@
         <v>-333.15692479</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>112600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4909,17 +4675,11 @@
         <v>-332.79692479</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>112600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4948,17 +4708,11 @@
         <v>-332.79692479</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>112900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4987,17 +4741,11 @@
         <v>-332.79692479</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>112900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5026,17 +4774,11 @@
         <v>-337.99262479</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>112900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5065,17 +4807,11 @@
         <v>-339.73252479</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>112700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5104,17 +4840,11 @@
         <v>-339.73252479</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>112600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5143,17 +4873,11 @@
         <v>-339.7604247899999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>112600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5186,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5223,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5260,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5297,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5334,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5371,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5408,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5445,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5482,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5515,17 +5203,11 @@
         <v>-420.2732247899999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>111800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5554,17 +5236,11 @@
         <v>-420.2732247899999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>111800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5593,17 +5269,11 @@
         <v>-419.9532247899999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>111800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5632,17 +5302,11 @@
         <v>-435.7498247899999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>112000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5671,17 +5335,11 @@
         <v>-435.7498247899999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5710,17 +5368,11 @@
         <v>-435.7498247899999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5749,17 +5401,11 @@
         <v>-431.0698247899999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5788,17 +5434,11 @@
         <v>-430.6998247899999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>112000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5827,17 +5467,11 @@
         <v>-430.7637247899999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>112100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5866,17 +5500,11 @@
         <v>-430.7637247899999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5905,17 +5533,11 @@
         <v>-430.7637247899999</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5944,17 +5566,11 @@
         <v>-434.2549247899999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5983,17 +5599,11 @@
         <v>-514.0477247899998</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>111800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6022,17 +5632,11 @@
         <v>-767.2080247899999</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>111100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6069,7 +5673,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -7309,11 +6913,9 @@
         <v>-377.6826247899999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>113900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7385,11 +6987,9 @@
         <v>-449.4935247899999</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>112400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
@@ -7424,11 +7024,9 @@
         <v>-449.4935247899999</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>112400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
@@ -7463,11 +7061,9 @@
         <v>-402.3987247899999</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>112400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7948,9 +7544,11 @@
         <v>-429.4428562299999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>112300</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -13350,18 +12948,16 @@
         <v>-460.6537732199999</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
+      <c r="L355" t="inlineStr"/>
       <c r="M355" t="inlineStr"/>
     </row>
     <row r="356">
@@ -13387,15 +12983,11 @@
         <v>-207.80127322</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13428,11 +13020,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13465,11 +13053,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13502,11 +13086,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13539,11 +13119,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13576,11 +13152,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13613,11 +13185,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13646,15 +13214,11 @@
         <v>-603.74743604</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13687,11 +13251,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13724,11 +13284,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13761,11 +13317,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13798,11 +13350,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13835,11 +13383,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13872,11 +13416,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13909,11 +13449,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13946,11 +13482,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13983,11 +13515,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14020,11 +13548,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14057,11 +13581,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14094,11 +13614,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14131,11 +13647,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14168,11 +13680,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14201,15 +13709,11 @@
         <v>-1222.16678177</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14238,15 +13742,11 @@
         <v>-1290.40838177</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14279,11 +13779,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14316,11 +13812,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14353,11 +13845,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14386,15 +13874,11 @@
         <v>-1106.58408177</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14423,15 +13907,11 @@
         <v>-1106.12808177</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14460,15 +13940,11 @@
         <v>-1088.55088177</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14497,15 +13973,11 @@
         <v>-1094.85628177</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14534,15 +14006,11 @@
         <v>-1086.43918177</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14571,15 +14039,11 @@
         <v>-1188.47408177</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14612,11 +14076,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14649,11 +14109,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14686,11 +14142,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14723,11 +14175,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14760,11 +14208,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14797,11 +14241,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14834,11 +14274,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14871,11 +14307,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14908,11 +14340,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14945,11 +14373,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14982,11 +14406,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15019,11 +14439,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15056,11 +14472,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15093,11 +14505,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15130,11 +14538,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15167,11 +14571,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15204,11 +14604,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15241,11 +14637,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15278,11 +14670,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15315,11 +14703,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15352,11 +14736,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15389,11 +14769,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15426,11 +14802,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15463,11 +14835,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15500,11 +14868,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15537,11 +14901,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15574,11 +14934,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15611,11 +14967,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15648,11 +15000,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15685,11 +15033,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15722,11 +15066,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15759,11 +15099,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +15132,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15833,11 +15165,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15870,11 +15198,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15907,11 +15231,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15944,11 +15264,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15981,11 +15297,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16018,11 +15330,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16055,11 +15363,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16092,11 +15396,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16129,11 +15429,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16166,11 +15462,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16203,11 +15495,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16240,11 +15528,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16277,11 +15561,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16314,11 +15594,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16351,11 +15627,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16388,11 +15660,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16425,11 +15693,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16462,11 +15726,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16499,11 +15759,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16536,11 +15792,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16573,11 +15825,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16610,11 +15858,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16647,11 +15891,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16684,11 +15924,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16721,11 +15957,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16758,11 +15990,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16795,11 +16023,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16832,11 +16056,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16869,11 +16089,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16906,11 +16122,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16943,11 +16155,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16976,16 +16184,14 @@
         <v>315.2251103299994</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
       <c r="M453" t="inlineStr"/>
     </row>
     <row r="454">
@@ -17011,7 +16217,7 @@
         <v>228.1285103299994</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17044,7 +16250,7 @@
         <v>323.8712103299994</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17077,7 +16283,7 @@
         <v>323.8712103299994</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17110,7 +16316,7 @@
         <v>314.8186103299994</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17143,7 +16349,7 @@
         <v>265.3704103299994</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17176,7 +16382,7 @@
         <v>271.6545103299994</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17209,7 +16415,7 @@
         <v>263.9406103299994</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17242,7 +16448,7 @@
         <v>277.5219103299994</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17275,7 +16481,7 @@
         <v>263.8423103299994</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17308,7 +16514,7 @@
         <v>248.5362103299994</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17341,7 +16547,7 @@
         <v>267.4183103299994</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17374,7 +16580,7 @@
         <v>259.4507103299994</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17407,7 +16613,7 @@
         <v>384.7101103299993</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17440,7 +16646,7 @@
         <v>330.9729103299993</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17473,7 +16679,7 @@
         <v>326.0519103299993</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17506,7 +16712,7 @@
         <v>326.0519103299993</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17539,7 +16745,7 @@
         <v>305.9866103299993</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17572,7 +16778,7 @@
         <v>315.9898103299993</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17605,7 +16811,7 @@
         <v>316.3618103299993</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17638,7 +16844,7 @@
         <v>350.6623103299993</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17671,7 +16877,7 @@
         <v>306.8690103299994</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17704,7 +16910,7 @@
         <v>306.8690103299994</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17737,7 +16943,7 @@
         <v>276.8743103299993</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17770,7 +16976,7 @@
         <v>125.7051103299993</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17803,7 +17009,7 @@
         <v>222.3674658699993</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17836,7 +17042,7 @@
         <v>213.4884658699993</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17869,7 +17075,7 @@
         <v>183.6805658699994</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17902,7 +17108,7 @@
         <v>171.5940658699994</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17935,7 +17141,7 @@
         <v>222.9181658699994</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17968,7 +17174,7 @@
         <v>335.7445658699994</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18001,7 +17207,7 @@
         <v>335.7445658699994</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18034,7 +17240,7 @@
         <v>343.1276658699994</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18067,7 +17273,7 @@
         <v>321.4313658699994</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18100,7 +17306,7 @@
         <v>356.7418658699994</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18133,7 +17339,7 @@
         <v>437.2348658699994</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18166,7 +17372,7 @@
         <v>517.6282658699994</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18199,7 +17405,7 @@
         <v>509.1569658699994</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18232,7 +17438,7 @@
         <v>533.7005168299994</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18265,7 +17471,7 @@
         <v>540.3043168299994</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18298,7 +17504,7 @@
         <v>466.1134168299994</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18331,7 +17537,7 @@
         <v>466.1134168299994</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18364,7 +17570,7 @@
         <v>316.3039168299994</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18397,7 +17603,7 @@
         <v>308.3869168299994</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18430,7 +17636,7 @@
         <v>193.8423168299994</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18463,7 +17669,7 @@
         <v>246.4250168299994</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18496,7 +17702,7 @@
         <v>301.5627225899994</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18529,7 +17735,7 @@
         <v>301.5627225899994</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18562,7 +17768,7 @@
         <v>302.7627225899994</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18595,7 +17801,7 @@
         <v>302.7783225899994</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18628,7 +17834,7 @@
         <v>302.7783225899994</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18661,7 +17867,7 @@
         <v>271.8880409299994</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18694,7 +17900,7 @@
         <v>271.9636409299994</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18727,7 +17933,7 @@
         <v>381.3464409299994</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18760,7 +17966,7 @@
         <v>458.1841068999994</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18793,7 +17999,7 @@
         <v>434.9855068999994</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18826,7 +18032,7 @@
         <v>422.8504068999994</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18859,7 +18065,7 @@
         <v>432.8496821099994</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18892,7 +18098,7 @@
         <v>429.6184821099994</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18925,7 +18131,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18958,7 +18164,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18991,7 +18197,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19024,7 +18230,7 @@
         <v>422.6271821099994</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19057,7 +18263,7 @@
         <v>422.6271821099994</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19090,7 +18296,7 @@
         <v>411.3255821099993</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19123,7 +18329,7 @@
         <v>401.3285821099993</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19156,7 +18362,7 @@
         <v>411.6841821099993</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19189,7 +18395,7 @@
         <v>431.8271821099993</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19222,7 +18428,7 @@
         <v>485.6465821099993</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19255,7 +18461,7 @@
         <v>485.4814821099993</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19288,7 +18494,7 @@
         <v>498.0823821099993</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19321,7 +18527,7 @@
         <v>497.8724821099993</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19354,7 +18560,7 @@
         <v>496.7623821099993</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19387,7 +18593,7 @@
         <v>496.7623821099993</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19420,7 +18626,7 @@
         <v>496.7623821099993</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19453,7 +18659,7 @@
         <v>496.8623821099993</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19486,7 +18692,7 @@
         <v>497.8623821099993</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19519,7 +18725,7 @@
         <v>511.3588821099993</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19552,7 +18758,7 @@
         <v>509.8002821099993</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19585,7 +18791,7 @@
         <v>532.8750821099993</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19618,7 +18824,7 @@
         <v>526.7503821099994</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19651,7 +18857,7 @@
         <v>556.5376821099993</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19684,7 +18890,7 @@
         <v>558.3305821099993</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19717,7 +18923,7 @@
         <v>553.3451821099993</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19750,7 +18956,7 @@
         <v>553.3451821099993</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19783,7 +18989,7 @@
         <v>556.5623821099994</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19816,7 +19022,7 @@
         <v>557.5622821099994</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19849,7 +19055,7 @@
         <v>559.2956821099993</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19882,7 +19088,7 @@
         <v>559.6156821099994</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19915,7 +19121,7 @@
         <v>525.5765821099994</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19948,7 +19154,7 @@
         <v>529.0451821099995</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19981,7 +19187,7 @@
         <v>523.8794821099995</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20014,7 +19220,7 @@
         <v>523.8794821099995</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20047,7 +19253,7 @@
         <v>523.8375821099994</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20080,7 +19286,7 @@
         <v>525.7487821099994</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20113,7 +19319,7 @@
         <v>526.4187821099994</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20146,7 +19352,7 @@
         <v>497.9477821099994</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20179,7 +19385,7 @@
         <v>518.0091821099994</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20212,7 +19418,7 @@
         <v>522.5741821099995</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20245,7 +19451,7 @@
         <v>518.6201821099995</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20278,7 +19484,7 @@
         <v>518.2624821099995</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20311,7 +19517,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20344,7 +19550,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20377,7 +19583,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20410,7 +19616,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20443,7 +19649,7 @@
         <v>519.4285821099995</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20476,7 +19682,7 @@
         <v>533.1686821099995</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20509,7 +19715,7 @@
         <v>526.8613821099995</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20542,7 +19748,7 @@
         <v>527.1913821099995</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20575,7 +19781,7 @@
         <v>522.1968821099995</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20608,7 +19814,7 @@
         <v>522.1968821099995</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20641,7 +19847,7 @@
         <v>522.1968821099995</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20674,7 +19880,7 @@
         <v>473.5731821099995</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20773,7 +19979,7 @@
         <v>703.0717821099995</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20806,7 +20012,7 @@
         <v>702.6266821099995</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20872,7 +20078,7 @@
         <v>705.6037821099994</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20905,7 +20111,7 @@
         <v>647.6954821099994</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20971,7 +20177,7 @@
         <v>823.7013352399994</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21004,7 +20210,7 @@
         <v>827.2371352399994</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21037,7 +20243,7 @@
         <v>827.2371352399994</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21070,7 +20276,7 @@
         <v>808.0837352399993</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -23248,7 +22454,7 @@
         <v>734.1956352399991</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -23281,7 +22487,7 @@
         <v>805.962516599999</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -23314,7 +22520,7 @@
         <v>794.6190165999991</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23347,7 +22553,7 @@
         <v>794.6336165999991</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23380,7 +22586,7 @@
         <v>793.787316599999</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23413,7 +22619,7 @@
         <v>798.787316599999</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23446,7 +22652,7 @@
         <v>798.450516599999</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23479,7 +22685,7 @@
         <v>801.289116599999</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23512,7 +22718,7 @@
         <v>797.752516599999</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23545,7 +22751,7 @@
         <v>797.752516599999</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23578,7 +22784,7 @@
         <v>743.752116599999</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23611,7 +22817,7 @@
         <v>669.503016599999</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23644,7 +22850,7 @@
         <v>709.956416599999</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23677,7 +22883,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23710,7 +22916,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23743,7 +22949,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23776,7 +22982,7 @@
         <v>681.614716599999</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23809,7 +23015,7 @@
         <v>681.884716599999</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23842,7 +23048,7 @@
         <v>680.930616599999</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23875,7 +23081,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23908,7 +23114,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23941,7 +23147,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23974,7 +23180,7 @@
         <v>713.815916599999</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24007,7 +23213,7 @@
         <v>713.815916599999</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24040,7 +23246,7 @@
         <v>714.495916599999</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24073,7 +23279,7 @@
         <v>714.195916599999</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24106,7 +23312,7 @@
         <v>714.595916599999</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24139,7 +23345,7 @@
         <v>692.257416599999</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24172,7 +23378,7 @@
         <v>692.257416599999</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24205,7 +23411,7 @@
         <v>699.069416599999</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24238,7 +23444,7 @@
         <v>690.919116599999</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24271,7 +23477,7 @@
         <v>691.3691165999991</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -24304,7 +23510,7 @@
         <v>641.5655165999991</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -24337,7 +23543,7 @@
         <v>641.8555165999991</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24370,7 +23576,7 @@
         <v>641.8426165999991</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -24403,7 +23609,7 @@
         <v>641.8726165999991</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -24436,7 +23642,7 @@
         <v>641.8726165999991</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -24469,7 +23675,7 @@
         <v>641.2367347099992</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24502,7 +23708,7 @@
         <v>641.0536347099992</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -24535,7 +23741,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24568,7 +23774,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24601,7 +23807,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24634,7 +23840,7 @@
         <v>566.5838347099992</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24667,7 +23873,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24700,7 +23906,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24733,7 +23939,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24766,7 +23972,7 @@
         <v>582.7967347099992</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24799,7 +24005,7 @@
         <v>605.7258347099992</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24832,7 +24038,7 @@
         <v>594.2907347099991</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24865,7 +24071,7 @@
         <v>570.2627347099991</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24898,7 +24104,7 @@
         <v>570.6727347099991</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24931,7 +24137,7 @@
         <v>570.6727347099991</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24964,7 +24170,7 @@
         <v>549.7436347099991</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24997,7 +24203,7 @@
         <v>572.4054347099991</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -25030,7 +24236,7 @@
         <v>572.4054347099991</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -25063,7 +24269,7 @@
         <v>498.0456347099991</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -25096,7 +24302,7 @@
         <v>845.9874347099991</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25129,7 +24335,7 @@
         <v>845.705034709999</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25162,7 +24368,7 @@
         <v>867.2466347099991</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -25195,7 +24401,7 @@
         <v>905.027942429999</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -25228,7 +24434,7 @@
         <v>869.124542429999</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -25261,7 +24467,7 @@
         <v>846.231042429999</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -25294,7 +24500,7 @@
         <v>789.018642429999</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -25327,7 +24533,7 @@
         <v>787.5224424299989</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -25360,7 +24566,7 @@
         <v>747.0778424299989</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -25393,7 +24599,7 @@
         <v>651.4636424299989</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -25426,7 +24632,7 @@
         <v>651.7436424299989</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25459,7 +24665,7 @@
         <v>651.4758424299989</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25492,7 +24698,7 @@
         <v>671.9586424299989</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25525,7 +24731,7 @@
         <v>621.1082424299989</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25558,7 +24764,7 @@
         <v>631.3492424299989</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25591,7 +24797,7 @@
         <v>552.4267424299989</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25624,7 +24830,7 @@
         <v>552.4267424299989</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25657,7 +24863,7 @@
         <v>362.7567424299989</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25690,7 +24896,7 @@
         <v>308.4989424299989</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25701,6 +24907,6 @@
       <c r="M717" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest BSV.xlsx
+++ b/BackTest/2019-11-24 BackTest BSV.xlsx
@@ -6874,11 +6874,9 @@
         <v>-359.3137247899999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>112400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7135,11 +7133,9 @@
         <v>-408.4866562299999</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>111900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7544,11 +7540,9 @@
         <v>-429.4428562299999</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>112300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -13016,7 +13010,7 @@
         <v>-723.7357732199999</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13214,7 +13208,7 @@
         <v>-603.74743604</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13709,7 +13703,7 @@
         <v>-1222.16678177</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13742,7 +13736,7 @@
         <v>-1290.40838177</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13874,7 +13868,7 @@
         <v>-1106.58408177</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13907,7 +13901,7 @@
         <v>-1106.12808177</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13940,7 +13934,7 @@
         <v>-1088.55088177</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13973,7 +13967,7 @@
         <v>-1094.85628177</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14006,7 +14000,7 @@
         <v>-1086.43918177</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14039,7 +14033,7 @@
         <v>-1188.47408177</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15656,7 +15650,7 @@
         <v>-112.3475038900007</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15689,7 +15683,7 @@
         <v>-156.0362885900007</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15821,7 +15815,7 @@
         <v>-54.27298859000069</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16151,7 +16145,7 @@
         <v>216.6709103299994</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16184,7 +16178,7 @@
         <v>315.2251103299994</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16217,7 +16211,7 @@
         <v>228.1285103299994</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16250,7 +16244,7 @@
         <v>323.8712103299994</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16283,7 +16277,7 @@
         <v>323.8712103299994</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16316,7 +16310,7 @@
         <v>314.8186103299994</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16349,7 +16343,7 @@
         <v>265.3704103299994</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16382,7 +16376,7 @@
         <v>271.6545103299994</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16415,7 +16409,7 @@
         <v>263.9406103299994</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16448,7 +16442,7 @@
         <v>277.5219103299994</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16481,7 +16475,7 @@
         <v>263.8423103299994</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16514,7 +16508,7 @@
         <v>248.5362103299994</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16547,7 +16541,7 @@
         <v>267.4183103299994</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16580,7 +16574,7 @@
         <v>259.4507103299994</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16613,7 +16607,7 @@
         <v>384.7101103299993</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16646,7 +16640,7 @@
         <v>330.9729103299993</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16679,7 +16673,7 @@
         <v>326.0519103299993</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16712,7 +16706,7 @@
         <v>326.0519103299993</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16745,7 +16739,7 @@
         <v>305.9866103299993</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16778,7 +16772,7 @@
         <v>315.9898103299993</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16811,7 +16805,7 @@
         <v>316.3618103299993</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16844,7 +16838,7 @@
         <v>350.6623103299993</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16877,7 +16871,7 @@
         <v>306.8690103299994</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16910,7 +16904,7 @@
         <v>306.8690103299994</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17438,7 +17432,7 @@
         <v>533.7005168299994</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17471,7 +17465,7 @@
         <v>540.3043168299994</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17504,7 +17498,7 @@
         <v>466.1134168299994</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17999,7 +17993,7 @@
         <v>434.9855068999994</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18032,7 +18026,7 @@
         <v>422.8504068999994</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18065,7 +18059,7 @@
         <v>432.8496821099994</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18098,7 +18092,7 @@
         <v>429.6184821099994</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18131,7 +18125,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18164,7 +18158,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18197,7 +18191,7 @@
         <v>429.6162821099994</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18230,7 +18224,7 @@
         <v>422.6271821099994</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18263,7 +18257,7 @@
         <v>422.6271821099994</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18461,7 +18455,7 @@
         <v>485.4814821099993</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18527,7 +18521,7 @@
         <v>497.8724821099993</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18725,7 +18719,7 @@
         <v>511.3588821099993</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18758,7 +18752,7 @@
         <v>509.8002821099993</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18791,7 +18785,7 @@
         <v>532.8750821099993</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18824,7 +18818,7 @@
         <v>526.7503821099994</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18857,7 +18851,7 @@
         <v>556.5376821099993</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18890,7 +18884,7 @@
         <v>558.3305821099993</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18923,7 +18917,7 @@
         <v>553.3451821099993</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18956,7 +18950,7 @@
         <v>553.3451821099993</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18989,7 +18983,7 @@
         <v>556.5623821099994</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19022,7 +19016,7 @@
         <v>557.5622821099994</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19055,7 +19049,7 @@
         <v>559.2956821099993</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19088,7 +19082,7 @@
         <v>559.6156821099994</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19121,7 +19115,7 @@
         <v>525.5765821099994</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19154,7 +19148,7 @@
         <v>529.0451821099995</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19187,7 +19181,7 @@
         <v>523.8794821099995</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19220,7 +19214,7 @@
         <v>523.8794821099995</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19253,7 +19247,7 @@
         <v>523.8375821099994</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19319,7 +19313,7 @@
         <v>526.4187821099994</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19352,7 +19346,7 @@
         <v>497.9477821099994</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19385,7 +19379,7 @@
         <v>518.0091821099994</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19418,7 +19412,7 @@
         <v>522.5741821099995</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19451,7 +19445,7 @@
         <v>518.6201821099995</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19484,7 +19478,7 @@
         <v>518.2624821099995</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19517,7 +19511,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19550,7 +19544,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19583,7 +19577,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19616,7 +19610,7 @@
         <v>519.4932821099995</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19649,7 +19643,7 @@
         <v>519.4285821099995</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19682,7 +19676,7 @@
         <v>533.1686821099995</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19715,7 +19709,7 @@
         <v>526.8613821099995</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19748,7 +19742,7 @@
         <v>527.1913821099995</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19781,7 +19775,7 @@
         <v>522.1968821099995</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19814,7 +19808,7 @@
         <v>522.1968821099995</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19880,7 +19874,7 @@
         <v>473.5731821099995</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20012,7 +20006,7 @@
         <v>702.6266821099995</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20276,7 +20270,7 @@
         <v>808.0837352399993</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22157,7 +22151,7 @@
         <v>666.447635239999</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22190,7 +22184,7 @@
         <v>666.5276352399991</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22223,7 +22217,7 @@
         <v>666.8676352399991</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22256,7 +22250,7 @@
         <v>666.8676352399991</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22289,7 +22283,7 @@
         <v>668.3338352399991</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22322,7 +22316,7 @@
         <v>687.633835239999</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22355,7 +22349,7 @@
         <v>702.1962352399991</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22388,7 +22382,7 @@
         <v>702.1962352399991</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22421,7 +22415,7 @@
         <v>734.1956352399991</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22454,7 +22448,7 @@
         <v>734.1956352399991</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22487,7 +22481,7 @@
         <v>805.962516599999</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22520,7 +22514,7 @@
         <v>794.6190165999991</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22553,7 +22547,7 @@
         <v>794.6336165999991</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22586,7 +22580,7 @@
         <v>793.787316599999</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22619,7 +22613,7 @@
         <v>798.787316599999</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22652,7 +22646,7 @@
         <v>798.450516599999</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22685,7 +22679,7 @@
         <v>801.289116599999</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22718,7 +22712,7 @@
         <v>797.752516599999</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22751,7 +22745,7 @@
         <v>797.752516599999</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22784,7 +22778,7 @@
         <v>743.752116599999</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22817,7 +22811,7 @@
         <v>669.503016599999</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22850,7 +22844,7 @@
         <v>709.956416599999</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22883,7 +22877,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22916,7 +22910,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22949,7 +22943,7 @@
         <v>710.659116599999</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22982,7 +22976,7 @@
         <v>681.614716599999</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23015,7 +23009,7 @@
         <v>681.884716599999</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23048,7 +23042,7 @@
         <v>680.930616599999</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23081,7 +23075,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23114,7 +23108,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23147,7 +23141,7 @@
         <v>669.977516599999</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23180,7 +23174,7 @@
         <v>713.815916599999</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23213,7 +23207,7 @@
         <v>713.815916599999</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23246,7 +23240,7 @@
         <v>714.495916599999</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23279,7 +23273,7 @@
         <v>714.195916599999</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23312,7 +23306,7 @@
         <v>714.595916599999</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23345,7 +23339,7 @@
         <v>692.257416599999</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23378,7 +23372,7 @@
         <v>692.257416599999</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23411,7 +23405,7 @@
         <v>699.069416599999</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23444,7 +23438,7 @@
         <v>690.919116599999</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23477,7 +23471,7 @@
         <v>691.3691165999991</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23510,7 +23504,7 @@
         <v>641.5655165999991</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23543,7 +23537,7 @@
         <v>641.8555165999991</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23576,7 +23570,7 @@
         <v>641.8426165999991</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23609,7 +23603,7 @@
         <v>641.8726165999991</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23642,7 +23636,7 @@
         <v>641.8726165999991</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23675,7 +23669,7 @@
         <v>641.2367347099992</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23708,7 +23702,7 @@
         <v>641.0536347099992</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23741,7 +23735,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23774,7 +23768,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23807,7 +23801,7 @@
         <v>563.2338347099992</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23840,7 +23834,7 @@
         <v>566.5838347099992</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23873,7 +23867,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23906,7 +23900,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23939,7 +23933,7 @@
         <v>565.0837347099992</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23972,7 +23966,7 @@
         <v>582.7967347099992</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24005,7 +23999,7 @@
         <v>605.7258347099992</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24038,7 +24032,7 @@
         <v>594.2907347099991</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24071,7 +24065,7 @@
         <v>570.2627347099991</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24104,7 +24098,7 @@
         <v>570.6727347099991</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24137,7 +24131,7 @@
         <v>570.6727347099991</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24170,7 +24164,7 @@
         <v>549.7436347099991</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24203,7 +24197,7 @@
         <v>572.4054347099991</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24236,7 +24230,7 @@
         <v>572.4054347099991</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24269,7 +24263,7 @@
         <v>498.0456347099991</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -24302,7 +24296,7 @@
         <v>845.9874347099991</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24335,7 +24329,7 @@
         <v>845.705034709999</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24368,7 +24362,7 @@
         <v>867.2466347099991</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24401,7 +24395,7 @@
         <v>905.027942429999</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24434,7 +24428,7 @@
         <v>869.124542429999</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24467,7 +24461,7 @@
         <v>846.231042429999</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24500,7 +24494,7 @@
         <v>789.018642429999</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24533,7 +24527,7 @@
         <v>787.5224424299989</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24566,7 +24560,7 @@
         <v>747.0778424299989</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24599,7 +24593,7 @@
         <v>651.4636424299989</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24632,7 +24626,7 @@
         <v>651.7436424299989</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24665,7 +24659,7 @@
         <v>651.4758424299989</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24698,7 +24692,7 @@
         <v>671.9586424299989</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24731,7 +24725,7 @@
         <v>621.1082424299989</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24764,7 +24758,7 @@
         <v>631.3492424299989</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
